--- a/public/horarios/seguridad-1ero-a.xlsx
+++ b/public/horarios/seguridad-1ero-a.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\waide\Documents\isippweb\public\horarios\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\waide\OneDrive\Documentos\isippweb\public\horarios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10AB65B1-CACA-438A-B8B7-EDCEA723641A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99502782-DD27-47ED-B5ED-1FFEDEE10B57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -78,18 +78,12 @@
     <t xml:space="preserve">Informatica (Silvero Selene) </t>
   </si>
   <si>
-    <t xml:space="preserve">Matematica(Ortigoza Paul) </t>
-  </si>
-  <si>
     <t>Practicas Profesionalizantes (Tania Francou)</t>
   </si>
   <si>
     <t>Legislación(Cesar Salinas)</t>
   </si>
   <si>
-    <t>Matematica(Ortigoza Paul)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Higiene (Cesar Salinas) </t>
   </si>
   <si>
@@ -97,6 +91,12 @@
   </si>
   <si>
     <t xml:space="preserve">Qumica 1 (Mora Maximiliano) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Matematica (Ortigoza Paul) </t>
+  </si>
+  <si>
+    <t>Matematica (Ortigoza Paul)</t>
   </si>
 </sst>
 </file>
@@ -466,8 +466,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -545,10 +545,10 @@
         <v>16</v>
       </c>
       <c r="E5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="104.4" x14ac:dyDescent="0.3">
@@ -557,16 +557,16 @@
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="104.4" x14ac:dyDescent="0.3">
@@ -575,16 +575,16 @@
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -601,7 +601,7 @@
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
